--- a/biology/Médecine/Assistant_de_régulation_médicale/Assistant_de_régulation_médicale.xlsx
+++ b/biology/Médecine/Assistant_de_régulation_médicale/Assistant_de_régulation_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Assistant_de_r%C3%A9gulation_m%C3%A9dicale</t>
+          <t>Assistant_de_régulation_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’assistant de régulation médicale (ARM) est un personnel de la fonction publique hospitalière (catégorie B) exerçant dans un SAMU. C'est le premier maillon de la chaîne des secours médicaux français. Il travaille au sein du centre de réception et de régulation des appels (CRRA) du SAMU (ou centre 15), en collaboration avec des médecins hospitaliers et des médecins libéraux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Assistant_de_r%C3%A9gulation_m%C3%A9dicale</t>
+          <t>Assistant_de_régulation_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« L'ARM est au régulateur ce que l’infirmier est au médecin clinicien et praticien ». Docteur Miguel Martinez–Almoyna en 1982.
 L'assistant de régulation médicale est atteignable par un numéro d'urgence médicale en France : le 15. Pour n'importe quelle urgence médicale sur le territoire français (métropole et outre-mer), il appartient de faire le 15 afin d'appeler le SAMU que ce soit pour un malaise, un blessé ou toute autre situation à caractère médical. Le 15 est un numéro d'urgence, gratuit et joignable même sans carte SIM, d'un téléphone fixe ou portable.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Assistant_de_r%C3%A9gulation_m%C3%A9dicale</t>
+          <t>Assistant_de_régulation_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un décret du 19 juillet 2019[1] indique quels sont les blocs de compétence nécessaires pour obtenir le diplôme d'assistant de régulation médicale et précise que les centres de formation d'assistant de régulation médicale doivent être agréés par le Ministère de la santé. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un décret du 19 juillet 2019 indique quels sont les blocs de compétence nécessaires pour obtenir le diplôme d'assistant de régulation médicale et précise que les centres de formation d'assistant de régulation médicale doivent être agréés par le Ministère de la santé. 
 À compter de 2019 une formation d'une année (1470 heures) répartie entre cours théoriques et stages pratiques en centres de formation spécialisé, appelés CFARM, a été instaurée. Il s'agit d'une formation diplômante de niveau IV répertoriée au RNCP (répertoire national des certifications professionnelles).
 Par arrêté du 19 juillet 2019, dix centres de formation ont été agréés par le Ministère des solidarités et de la santé :
 CFARM de Marseille (Assistance Publique - Hôpitaux de Marseille)
